--- a/data/trans_camb/P6904-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6904-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; 41,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 70,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,96; 48,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,28; 59,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,83; 31,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,98; 41,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 42,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 46,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,26; 36,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,43; 175,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; 339,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,99; 229,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,23; 376,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,85; 153,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; 162,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,19; 143,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,97; 162,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,92; 144,28</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,49; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; 13,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,3; 45,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; 20,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 34,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; 20,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,41; 18,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,56; 18,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 29,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,96; 58,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,86; 29,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,29; 112,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,74; 39,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; 66,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,0; 45,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; 40,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; 37,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,56; 64,17</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 23,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 30,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 29,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 32,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 42,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 33,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 21,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,17; 30,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,7; 26,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 58,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 71,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 65,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 101,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,43; 132,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 108,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 52,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,99; 74,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,46; 62,62</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 16,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; 15,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,52; -0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,65; -3,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 25,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,31; 17,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; 2,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 16,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,09; 7,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,19%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,78; 33,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,21; 32,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,21; 0,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,91; -4,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,91; 50,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,84; 34,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,05; 5,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 31,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,79; 14,73</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 4,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 17,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 20,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 23,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 30,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 34,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,27; 8,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 18,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 22,73</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,98%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,89; 8,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; 34,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; 43,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,59; 59,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 76,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,75; 94,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,12; 18,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 40,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 48,35</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 10,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 15,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 16,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 9,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 24,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 19,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 7,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 16,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 15,73</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 21,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 30,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 33,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 19,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 52,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 42,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 14,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 32,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,84; 33,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,16</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,59</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>25,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,34</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>14,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 41,04</t>
+          <t>-8,74; 22,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 70,83</t>
+          <t>-17,1; 19,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 48,17</t>
+          <t>9,09; 39,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 59,36</t>
+          <t>-26,96; 20,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 31,5</t>
+          <t>-17,74; 27,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 41,39</t>
+          <t>-22,25; 15,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 42,35</t>
+          <t>-9,23; 18,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 46,52</t>
+          <t>-11,8; 17,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 36,25</t>
+          <t>2,66; 26,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 175,43</t>
+          <t>-15,12; 57,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 339,88</t>
+          <t>-29,49; 44,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 229,34</t>
+          <t>16,37; 96,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 376,3</t>
+          <t>-37,07; 39,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 153,0</t>
+          <t>-22,79; 54,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 162,71</t>
+          <t>-29,92; 29,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 143,67</t>
+          <t>-15,15; 40,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 162,59</t>
+          <t>-19,24; 36,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 144,28</t>
+          <t>4,47; 58,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,42</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>24,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>19,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 25,14</t>
+          <t>-2,83; 23,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 13,01</t>
+          <t>3,68; 30,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 45,63</t>
+          <t>2,32; 29,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 20,63</t>
+          <t>-6,18; 32,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 34,99</t>
+          <t>4,8; 42,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 20,59</t>
+          <t>3,69; 34,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 18,44</t>
+          <t>-0,4; 21,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 18,41</t>
+          <t>8,17; 30,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 29,66</t>
+          <t>7,85; 26,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,33%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>36,32%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 58,73</t>
+          <t>-4,68; 58,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 29,21</t>
+          <t>6,91; 71,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 112,25</t>
+          <t>3,84; 66,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 39,89</t>
+          <t>-11,94; 101,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 66,21</t>
+          <t>10,43; 132,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 45,63</t>
+          <t>6,64; 108,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 40,37</t>
+          <t>-1,0; 52,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 37,76</t>
+          <t>15,99; 74,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 64,17</t>
+          <t>14,84; 63,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,1</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>-19,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>-24,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,77</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,99</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 23,16</t>
+          <t>-15,69; 16,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 30,76</t>
+          <t>-12,27; 15,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 29,11</t>
+          <t>-36,88; -1,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 32,56</t>
+          <t>-43,65; -3,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 42,35</t>
+          <t>-9,66; 25,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 33,93</t>
+          <t>-17,58; 39,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 21,83</t>
+          <t>-21,41; 2,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 30,3</t>
+          <t>-5,49; 16,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 26,13</t>
+          <t>-17,73; 28,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>-34,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>-14,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>-2,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 58,82</t>
+          <t>-25,78; 33,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 71,78</t>
+          <t>-19,21; 32,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 65,57</t>
+          <t>-58,49; -2,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 101,77</t>
+          <t>-59,91; -4,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 132,94</t>
+          <t>-12,91; 50,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 108,86</t>
+          <t>-26,35; 92,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 52,14</t>
+          <t>-34,05; 5,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 74,55</t>
+          <t>-8,57; 31,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 62,62</t>
+          <t>-29,55; 57,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-24,67</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>21,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,83</t>
+          <t>13,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 16,1</t>
+          <t>-23,17; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 15,91</t>
+          <t>-9,32; 17,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-35,52; -0,37</t>
+          <t>-6,84; 20,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,65; -3,73</t>
+          <t>-11,49; 23,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 25,1</t>
+          <t>-2,64; 30,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 17,25</t>
+          <t>6,51; 33,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 2,74</t>
+          <t>-13,27; 8,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 16,59</t>
+          <t>-2,03; 18,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 7,22</t>
+          <t>4,03; 22,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-39,11%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,91%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>25,46%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 33,55</t>
+          <t>-38,89; 8,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 32,83</t>
+          <t>-16,14; 34,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 0,27</t>
+          <t>-11,46; 42,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-59,91; -4,22</t>
+          <t>-20,59; 59,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 50,57</t>
+          <t>-5,22; 76,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 34,43</t>
+          <t>13,82; 91,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 5,05</t>
+          <t>-24,12; 18,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 31,41</t>
+          <t>-3,04; 40,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 14,73</t>
+          <t>6,92; 47,54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,52</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,41</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>11,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 4,28</t>
+          <t>-4,44; 10,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 17,46</t>
+          <t>0,59; 15,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 20,64</t>
+          <t>1,81; 16,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 23,12</t>
+          <t>-9,82; 9,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 30,16</t>
+          <t>5,95; 24,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,2; 34,54</t>
+          <t>3,82; 24,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 8,45</t>
+          <t>-4,35; 7,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 18,74</t>
+          <t>4,77; 16,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 22,73</t>
+          <t>5,7; 18,53</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-17,02%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 8,35</t>
+          <t>-8,12; 21,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 34,96</t>
+          <t>1,06; 30,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 43,09</t>
+          <t>3,4; 34,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 59,87</t>
+          <t>-17,65; 19,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 76,7</t>
+          <t>10,39; 52,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,75; 94,54</t>
+          <t>6,64; 52,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 18,17</t>
+          <t>-7,96; 14,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 40,32</t>
+          <t>9,31; 32,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,02; 48,35</t>
+          <t>10,26; 36,55</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>15,45</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 10,88</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 15,06</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 16,87</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 9,17</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 24,23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 19,55</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 7,32</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 16,24</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 15,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>14,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>29,86%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>21,18%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>19,95%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 21,85</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 30,57</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 33,99</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-17,65; 19,28</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>10,39; 52,6</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 42,36</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 14,97</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>9,31; 32,96</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 33,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6904-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 22,93</t>
+          <t>-8,15; 23,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 19,07</t>
+          <t>-17,86; 19,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 39,3</t>
+          <t>9,86; 38,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 20,38</t>
+          <t>-25,48; 21,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 27,47</t>
+          <t>-15,86; 28,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 15,87</t>
+          <t>-22,02; 17,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 18,85</t>
+          <t>-9,76; 16,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 17,12</t>
+          <t>-11,1; 19,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 26,75</t>
+          <t>1,71; 26,25</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 57,11</t>
+          <t>-13,72; 58,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 44,94</t>
+          <t>-30,92; 45,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 96,08</t>
+          <t>16,81; 94,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 39,62</t>
+          <t>-33,51; 40,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 54,18</t>
+          <t>-21,7; 56,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 29,57</t>
+          <t>-28,81; 34,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 40,21</t>
+          <t>-15,86; 36,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 36,69</t>
+          <t>-18,53; 39,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 58,72</t>
+          <t>3,37; 56,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 23,16</t>
+          <t>-2,65; 24,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 30,76</t>
+          <t>4,83; 30,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 29,03</t>
+          <t>2,83; 29,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 32,56</t>
+          <t>-7,17; 30,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 42,35</t>
+          <t>5,31; 43,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 34,29</t>
+          <t>2,81; 34,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 21,83</t>
+          <t>0,03; 21,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 30,3</t>
+          <t>8,22; 29,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 26,51</t>
+          <t>6,57; 26,4</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 58,82</t>
+          <t>-4,92; 59,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 71,78</t>
+          <t>9,77; 75,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 66,94</t>
+          <t>5,91; 71,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 101,77</t>
+          <t>-13,2; 95,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 132,94</t>
+          <t>11,4; 150,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 108,94</t>
+          <t>4,49; 110,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 52,14</t>
+          <t>-0,04; 51,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 74,55</t>
+          <t>15,96; 70,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 63,68</t>
+          <t>11,4; 63,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 16,1</t>
+          <t>-14,47; 14,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 15,91</t>
+          <t>-11,01; 15,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,88; -1,89</t>
+          <t>-34,97; -3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,65; -3,73</t>
+          <t>-42,42; -5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 25,1</t>
+          <t>-9,89; 25,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 39,07</t>
+          <t>-17,97; 34,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 2,74</t>
+          <t>-21,14; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 16,59</t>
+          <t>-5,63; 16,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 28,13</t>
+          <t>-18,48; 21,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 33,55</t>
+          <t>-23,02; 30,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 32,83</t>
+          <t>-17,28; 31,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,49; -2,17</t>
+          <t>-57,79; -6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,91; -4,22</t>
+          <t>-60,0; -9,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 50,57</t>
+          <t>-13,14; 51,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 92,19</t>
+          <t>-27,22; 78,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 5,05</t>
+          <t>-33,68; 5,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 31,41</t>
+          <t>-9,16; 32,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 57,84</t>
+          <t>-30,39; 43,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 4,28</t>
+          <t>-23,81; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 17,46</t>
+          <t>-10,51; 17,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 20,63</t>
+          <t>-7,88; 19,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 23,12</t>
+          <t>-10,52; 22,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 30,16</t>
+          <t>-3,43; 29,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 33,66</t>
+          <t>7,15; 34,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 8,45</t>
+          <t>-12,87; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 18,74</t>
+          <t>-2,46; 18,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 22,27</t>
+          <t>4,57; 23,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 8,35</t>
+          <t>-39,69; 7,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 34,96</t>
+          <t>-17,57; 34,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 42,97</t>
+          <t>-13,42; 37,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 59,87</t>
+          <t>-20,33; 57,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 76,7</t>
+          <t>-6,45; 77,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,82; 91,42</t>
+          <t>13,06; 89,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 18,17</t>
+          <t>-23,51; 20,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 40,32</t>
+          <t>-4,69; 39,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 47,54</t>
+          <t>8,12; 50,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,88</t>
+          <t>-5,25; 10,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 15,06</t>
+          <t>-0,81; 13,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,6</t>
+          <t>1,56; 16,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>-10,03; 9,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>6,56; 24,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,82; 24,59</t>
+          <t>4,84; 25,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,32</t>
+          <t>-4,21; 7,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,24</t>
+          <t>4,49; 16,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,53</t>
+          <t>5,64; 17,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 21,85</t>
+          <t>-9,27; 20,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,06; 30,57</t>
+          <t>-1,45; 27,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,4; 34,08</t>
+          <t>2,88; 33,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 19,28</t>
+          <t>-17,86; 19,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,39; 52,6</t>
+          <t>11,58; 54,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,64; 52,33</t>
+          <t>8,3; 54,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,97</t>
+          <t>-7,82; 15,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,31; 32,96</t>
+          <t>8,28; 32,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,26; 36,55</t>
+          <t>10,6; 36,72</t>
         </is>
       </c>
     </row>
